--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>Tshr</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.15664719390278</v>
+        <v>0.4720256666666667</v>
       </c>
       <c r="H2">
-        <v>1.15664719390278</v>
+        <v>1.416077</v>
       </c>
       <c r="I2">
-        <v>0.6655807121096204</v>
+        <v>0.2054017728864386</v>
       </c>
       <c r="J2">
-        <v>0.6655807121096204</v>
+        <v>0.2054017728864386</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5939366706792319</v>
+        <v>0.167924</v>
       </c>
       <c r="N2">
-        <v>0.5939366706792319</v>
+        <v>0.503772</v>
       </c>
       <c r="O2">
-        <v>0.1977856521474601</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="P2">
-        <v>0.1977856521474601</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="Q2">
-        <v>0.6869751834970932</v>
+        <v>0.07926443804933334</v>
       </c>
       <c r="R2">
-        <v>0.6869751834970932</v>
+        <v>0.713379942444</v>
       </c>
       <c r="S2">
-        <v>0.1316423152013722</v>
+        <v>0.008814473612164529</v>
       </c>
       <c r="T2">
-        <v>0.1316423152013722</v>
+        <v>0.008814473612164531</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.15664719390278</v>
+        <v>0.4720256666666667</v>
       </c>
       <c r="H3">
-        <v>1.15664719390278</v>
+        <v>1.416077</v>
       </c>
       <c r="I3">
-        <v>0.6655807121096204</v>
+        <v>0.2054017728864386</v>
       </c>
       <c r="J3">
-        <v>0.6655807121096204</v>
+        <v>0.2054017728864386</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.08487664756852251</v>
+        <v>0.6325493333333333</v>
       </c>
       <c r="N3">
-        <v>0.08487664756852251</v>
+        <v>1.897648</v>
       </c>
       <c r="O3">
-        <v>0.02826460112697223</v>
+        <v>0.1616492990632312</v>
       </c>
       <c r="P3">
-        <v>0.02826460112697223</v>
+        <v>0.1616492990632313</v>
       </c>
       <c r="Q3">
-        <v>0.09817233623800678</v>
+        <v>0.2985795207662222</v>
       </c>
       <c r="R3">
-        <v>0.09817233623800678</v>
+        <v>2.687215686896</v>
       </c>
       <c r="S3">
-        <v>0.01881237334558456</v>
+        <v>0.03320305261343781</v>
       </c>
       <c r="T3">
-        <v>0.01881237334558456</v>
+        <v>0.03320305261343782</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.15664719390278</v>
+        <v>0.4720256666666667</v>
       </c>
       <c r="H4">
-        <v>1.15664719390278</v>
+        <v>1.416077</v>
       </c>
       <c r="I4">
-        <v>0.6655807121096204</v>
+        <v>0.2054017728864386</v>
       </c>
       <c r="J4">
-        <v>0.6655807121096204</v>
+        <v>0.2054017728864386</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.79621050391671</v>
+        <v>0.2560303333333334</v>
       </c>
       <c r="N4">
-        <v>1.79621050391671</v>
+        <v>0.7680910000000001</v>
       </c>
       <c r="O4">
-        <v>0.5981524351830307</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="P4">
-        <v>0.5981524351830307</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="Q4">
-        <v>2.077581839013961</v>
+        <v>0.1208528887785556</v>
       </c>
       <c r="R4">
-        <v>2.077581839013961</v>
+        <v>1.087675999007</v>
       </c>
       <c r="S4">
-        <v>0.3981187237592252</v>
+        <v>0.01343925000047852</v>
       </c>
       <c r="T4">
-        <v>0.3981187237592252</v>
+        <v>0.01343925000047852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.15664719390278</v>
+        <v>0.4720256666666667</v>
       </c>
       <c r="H5">
-        <v>1.15664719390278</v>
+        <v>1.416077</v>
       </c>
       <c r="I5">
-        <v>0.6655807121096204</v>
+        <v>0.2054017728864386</v>
       </c>
       <c r="J5">
-        <v>0.6655807121096204</v>
+        <v>0.2054017728864386</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.527907200538939</v>
+        <v>0.209825</v>
       </c>
       <c r="N5">
-        <v>0.527907200538939</v>
+        <v>0.629475</v>
       </c>
       <c r="O5">
-        <v>0.1757973115425368</v>
+        <v>0.05362121559310657</v>
       </c>
       <c r="P5">
-        <v>0.1757973115425368</v>
+        <v>0.05362121559310658</v>
       </c>
       <c r="Q5">
-        <v>0.610602382144436</v>
+        <v>0.09904278550833334</v>
       </c>
       <c r="R5">
-        <v>0.610602382144436</v>
+        <v>0.8913850695750001</v>
       </c>
       <c r="S5">
-        <v>0.1170072998034385</v>
+        <v>0.01101389274715003</v>
       </c>
       <c r="T5">
-        <v>0.1170072998034385</v>
+        <v>0.01101389274715004</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.581154357221919</v>
+        <v>0.4720256666666667</v>
       </c>
       <c r="H6">
-        <v>0.581154357221919</v>
+        <v>1.416077</v>
       </c>
       <c r="I6">
-        <v>0.3344192878903797</v>
+        <v>0.2054017728864386</v>
       </c>
       <c r="J6">
-        <v>0.3344192878903797</v>
+        <v>0.2054017728864386</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5939366706792319</v>
+        <v>1.862788333333333</v>
       </c>
       <c r="N6">
-        <v>0.5939366706792319</v>
+        <v>5.588365</v>
       </c>
       <c r="O6">
-        <v>0.1977856521474601</v>
+        <v>0.476039436797285</v>
       </c>
       <c r="P6">
-        <v>0.1977856521474601</v>
+        <v>0.4760394367972851</v>
       </c>
       <c r="Q6">
-        <v>0.3451688840791156</v>
+        <v>0.8792839049005555</v>
       </c>
       <c r="R6">
-        <v>0.3451688840791156</v>
+        <v>7.913555144105</v>
       </c>
       <c r="S6">
-        <v>0.06614333694608794</v>
+        <v>0.09777934428202406</v>
       </c>
       <c r="T6">
-        <v>0.06614333694608794</v>
+        <v>0.09777934428202407</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.581154357221919</v>
+        <v>0.4720256666666667</v>
       </c>
       <c r="H7">
-        <v>0.581154357221919</v>
+        <v>1.416077</v>
       </c>
       <c r="I7">
-        <v>0.3344192878903797</v>
+        <v>0.2054017728864386</v>
       </c>
       <c r="J7">
-        <v>0.3344192878903797</v>
+        <v>0.2054017728864386</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.08487664756852251</v>
+        <v>0.7839796666666666</v>
       </c>
       <c r="N7">
-        <v>0.08487664756852251</v>
+        <v>2.351939</v>
       </c>
       <c r="O7">
-        <v>0.02826460112697223</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="P7">
-        <v>0.02826460112697223</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="Q7">
-        <v>0.04932643356083605</v>
+        <v>0.3700585248114444</v>
       </c>
       <c r="R7">
-        <v>0.04932643356083605</v>
+        <v>3.330526723303</v>
       </c>
       <c r="S7">
-        <v>0.009452227781387676</v>
+        <v>0.04115175963118361</v>
       </c>
       <c r="T7">
-        <v>0.009452227781387676</v>
+        <v>0.04115175963118361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.581154357221919</v>
+        <v>1.167572666666667</v>
       </c>
       <c r="H8">
-        <v>0.581154357221919</v>
+        <v>3.502718</v>
       </c>
       <c r="I8">
-        <v>0.3344192878903797</v>
+        <v>0.5080687611769985</v>
       </c>
       <c r="J8">
-        <v>0.3344192878903797</v>
+        <v>0.5080687611769984</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.79621050391671</v>
+        <v>0.167924</v>
       </c>
       <c r="N8">
-        <v>1.79621050391671</v>
+        <v>0.503772</v>
       </c>
       <c r="O8">
-        <v>0.5981524351830307</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="P8">
-        <v>0.5981524351830307</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="Q8">
-        <v>1.043875560838975</v>
+        <v>0.1960634724773334</v>
       </c>
       <c r="R8">
-        <v>1.043875560838975</v>
+        <v>1.764571252296</v>
       </c>
       <c r="S8">
-        <v>0.2000337114238056</v>
+        <v>0.02180292129725553</v>
       </c>
       <c r="T8">
-        <v>0.2000337114238056</v>
+        <v>0.02180292129725553</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +962,681 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.581154357221919</v>
+        <v>1.167572666666667</v>
       </c>
       <c r="H9">
-        <v>0.581154357221919</v>
+        <v>3.502718</v>
       </c>
       <c r="I9">
-        <v>0.3344192878903797</v>
+        <v>0.5080687611769985</v>
       </c>
       <c r="J9">
-        <v>0.3344192878903797</v>
+        <v>0.5080687611769984</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.527907200538939</v>
+        <v>0.6325493333333333</v>
       </c>
       <c r="N9">
-        <v>0.527907200538939</v>
+        <v>1.897648</v>
       </c>
       <c r="O9">
-        <v>0.1757973115425368</v>
+        <v>0.1616492990632312</v>
       </c>
       <c r="P9">
-        <v>0.1757973115425368</v>
+        <v>0.1616492990632313</v>
       </c>
       <c r="Q9">
-        <v>0.3067955698020298</v>
+        <v>0.7385473119182223</v>
       </c>
       <c r="R9">
-        <v>0.3067955698020298</v>
+        <v>6.646925807264</v>
       </c>
       <c r="S9">
-        <v>0.05879001173909839</v>
+        <v>0.08212895912018604</v>
       </c>
       <c r="T9">
-        <v>0.05879001173909839</v>
+        <v>0.08212895912018604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.167572666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.502718</v>
+      </c>
+      <c r="I10">
+        <v>0.5080687611769985</v>
+      </c>
+      <c r="J10">
+        <v>0.5080687611769984</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2560303333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.7680910000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.06542908472318174</v>
+      </c>
+      <c r="P10">
+        <v>0.06542908472318174</v>
+      </c>
+      <c r="Q10">
+        <v>0.2989340190375556</v>
+      </c>
+      <c r="R10">
+        <v>2.690406171338001</v>
+      </c>
+      <c r="S10">
+        <v>0.03324247402025182</v>
+      </c>
+      <c r="T10">
+        <v>0.03324247402025182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.167572666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.502718</v>
+      </c>
+      <c r="I11">
+        <v>0.5080687611769985</v>
+      </c>
+      <c r="J11">
+        <v>0.5080687611769984</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.209825</v>
+      </c>
+      <c r="N11">
+        <v>0.629475</v>
+      </c>
+      <c r="O11">
+        <v>0.05362121559310657</v>
+      </c>
+      <c r="P11">
+        <v>0.05362121559310658</v>
+      </c>
+      <c r="Q11">
+        <v>0.2449859347833334</v>
+      </c>
+      <c r="R11">
+        <v>2.20487341305</v>
+      </c>
+      <c r="S11">
+        <v>0.02724326457919441</v>
+      </c>
+      <c r="T11">
+        <v>0.02724326457919441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.167572666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.502718</v>
+      </c>
+      <c r="I12">
+        <v>0.5080687611769985</v>
+      </c>
+      <c r="J12">
+        <v>0.5080687611769984</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.862788333333333</v>
+      </c>
+      <c r="N12">
+        <v>5.588365</v>
+      </c>
+      <c r="O12">
+        <v>0.476039436797285</v>
+      </c>
+      <c r="P12">
+        <v>0.4760394367972851</v>
+      </c>
+      <c r="Q12">
+        <v>2.174940741785556</v>
+      </c>
+      <c r="R12">
+        <v>19.57446667607</v>
+      </c>
+      <c r="S12">
+        <v>0.2418607669249927</v>
+      </c>
+      <c r="T12">
+        <v>0.2418607669249926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.167572666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.502718</v>
+      </c>
+      <c r="I13">
+        <v>0.5080687611769985</v>
+      </c>
+      <c r="J13">
+        <v>0.5080687611769984</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7839796666666666</v>
+      </c>
+      <c r="N13">
+        <v>2.351939</v>
+      </c>
+      <c r="O13">
+        <v>0.200347636015466</v>
+      </c>
+      <c r="P13">
+        <v>0.200347636015466</v>
+      </c>
+      <c r="Q13">
+        <v>0.9153532300224445</v>
+      </c>
+      <c r="R13">
+        <v>8.238179070201999</v>
+      </c>
+      <c r="S13">
+        <v>0.101790375235118</v>
+      </c>
+      <c r="T13">
+        <v>0.101790375235118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.658462</v>
+      </c>
+      <c r="H14">
+        <v>1.975386</v>
+      </c>
+      <c r="I14">
+        <v>0.286529465936563</v>
+      </c>
+      <c r="J14">
+        <v>0.286529465936563</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.167924</v>
+      </c>
+      <c r="N14">
+        <v>0.503772</v>
+      </c>
+      <c r="O14">
+        <v>0.04291332780772943</v>
+      </c>
+      <c r="P14">
+        <v>0.04291332780772943</v>
+      </c>
+      <c r="Q14">
+        <v>0.110571572888</v>
+      </c>
+      <c r="R14">
+        <v>0.995144155992</v>
+      </c>
+      <c r="S14">
+        <v>0.01229593289830937</v>
+      </c>
+      <c r="T14">
+        <v>0.01229593289830937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.658462</v>
+      </c>
+      <c r="H15">
+        <v>1.975386</v>
+      </c>
+      <c r="I15">
+        <v>0.286529465936563</v>
+      </c>
+      <c r="J15">
+        <v>0.286529465936563</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6325493333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.897648</v>
+      </c>
+      <c r="O15">
+        <v>0.1616492990632312</v>
+      </c>
+      <c r="P15">
+        <v>0.1616492990632313</v>
+      </c>
+      <c r="Q15">
+        <v>0.4165096991253333</v>
+      </c>
+      <c r="R15">
+        <v>3.748587292128</v>
+      </c>
+      <c r="S15">
+        <v>0.04631728732960741</v>
+      </c>
+      <c r="T15">
+        <v>0.04631728732960742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.658462</v>
+      </c>
+      <c r="H16">
+        <v>1.975386</v>
+      </c>
+      <c r="I16">
+        <v>0.286529465936563</v>
+      </c>
+      <c r="J16">
+        <v>0.286529465936563</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2560303333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.7680910000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.06542908472318174</v>
+      </c>
+      <c r="P16">
+        <v>0.06542908472318174</v>
+      </c>
+      <c r="Q16">
+        <v>0.1685862453473334</v>
+      </c>
+      <c r="R16">
+        <v>1.517276208126</v>
+      </c>
+      <c r="S16">
+        <v>0.0187473607024514</v>
+      </c>
+      <c r="T16">
+        <v>0.0187473607024514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.658462</v>
+      </c>
+      <c r="H17">
+        <v>1.975386</v>
+      </c>
+      <c r="I17">
+        <v>0.286529465936563</v>
+      </c>
+      <c r="J17">
+        <v>0.286529465936563</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.209825</v>
+      </c>
+      <c r="N17">
+        <v>0.629475</v>
+      </c>
+      <c r="O17">
+        <v>0.05362121559310657</v>
+      </c>
+      <c r="P17">
+        <v>0.05362121559310658</v>
+      </c>
+      <c r="Q17">
+        <v>0.13816178915</v>
+      </c>
+      <c r="R17">
+        <v>1.24345610235</v>
+      </c>
+      <c r="S17">
+        <v>0.01536405826676213</v>
+      </c>
+      <c r="T17">
+        <v>0.01536405826676213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.658462</v>
+      </c>
+      <c r="H18">
+        <v>1.975386</v>
+      </c>
+      <c r="I18">
+        <v>0.286529465936563</v>
+      </c>
+      <c r="J18">
+        <v>0.286529465936563</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.862788333333333</v>
+      </c>
+      <c r="N18">
+        <v>5.588365</v>
+      </c>
+      <c r="O18">
+        <v>0.476039436797285</v>
+      </c>
+      <c r="P18">
+        <v>0.4760394367972851</v>
+      </c>
+      <c r="Q18">
+        <v>1.226575331543333</v>
+      </c>
+      <c r="R18">
+        <v>11.03917798389</v>
+      </c>
+      <c r="S18">
+        <v>0.1363993255902683</v>
+      </c>
+      <c r="T18">
+        <v>0.1363993255902683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.658462</v>
+      </c>
+      <c r="H19">
+        <v>1.975386</v>
+      </c>
+      <c r="I19">
+        <v>0.286529465936563</v>
+      </c>
+      <c r="J19">
+        <v>0.286529465936563</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7839796666666666</v>
+      </c>
+      <c r="N19">
+        <v>2.351939</v>
+      </c>
+      <c r="O19">
+        <v>0.200347636015466</v>
+      </c>
+      <c r="P19">
+        <v>0.200347636015466</v>
+      </c>
+      <c r="Q19">
+        <v>0.5162208192726666</v>
+      </c>
+      <c r="R19">
+        <v>4.645987373454</v>
+      </c>
+      <c r="S19">
+        <v>0.0574055011491644</v>
+      </c>
+      <c r="T19">
+        <v>0.0574055011491644</v>
       </c>
     </row>
   </sheetData>
